--- a/XlsxTemplateTests/data/hyperlink.xlsx
+++ b/XlsxTemplateTests/data/hyperlink.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\template-go\TemplateGOTests\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\xlsx-template\XlsxTemplateTests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59F3B64-09F6-4707-BD83-2896BE1BF72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A9AA1E-0310-4371-B03A-3A00008A50A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1425" windowWidth="18300" windowHeight="14775" xr2:uid="{40F13A56-BB45-4C50-B798-DA250D12F3B8}"/>
+    <workbookView xWindow="960" yWindow="997" windowWidth="20565" windowHeight="13801" xr2:uid="{40F13A56-BB45-4C50-B798-DA250D12F3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="已存在链接" sheetId="1" r:id="rId1"/>
@@ -73,52 +73,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TemplateGO 超链接测试</t>
+    <t>这个也会加上链接${link1|link}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个不会加上链接${linkNot|link}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个会删除链接${linkNot|link}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${link1}${link1|link}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示链接地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个已经有链接了${link1|link}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个会加上链接${link1|link}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容显示为“这是链接内容”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容显示为“Home Page”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${link1|link:content=content}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${link1|link:content="Home Page"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XlsxTemplate 超链接测试</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个也会加上链接${link1|link}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个不会加上链接${linkNot|link}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个会删除链接${linkNot|link}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${link1}${link1|link}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示链接地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个已经有链接了${link1|link}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个会加上链接${link1|link}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容显示为“这是链接内容”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容显示为“Home Page”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${link1|link:content=content}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${link1|link:content="Home Page"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -254,9 +254,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -294,7 +294,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -400,7 +400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -542,7 +542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -556,21 +556,21 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="32.125" customWidth="1"/>
-    <col min="3" max="3" width="29.875" customWidth="1"/>
+    <col min="2" max="2" width="32.1328125" customWidth="1"/>
+    <col min="3" max="3" width="29.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.6">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -581,88 +581,88 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A9" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -686,21 +686,21 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="32.125" customWidth="1"/>
-    <col min="3" max="3" width="29.875" customWidth="1"/>
+    <col min="2" max="2" width="32.1328125" customWidth="1"/>
+    <col min="3" max="3" width="29.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.6">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -711,25 +711,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A4" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -755,20 +755,20 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.6">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -779,25 +779,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A4" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -820,21 +820,21 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="2" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" customWidth="1"/>
+    <col min="2" max="2" width="29.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.6">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -845,13 +845,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <f t="shared" ref="A3" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
